--- a/output.xlsx
+++ b/output.xlsx
@@ -7,17 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="final" sheetId="1" r:id="rId1"/>
+    <sheet name="FINAL" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Serial No</t>
   </si>
@@ -49,6 +46,18 @@
     <t>UEN number</t>
   </si>
   <si>
+    <t>Mode of payment</t>
+  </si>
+  <si>
+    <t>Name (as per bank book)</t>
+  </si>
+  <si>
+    <t>Bank name</t>
+  </si>
+  <si>
+    <t>Bank account number</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
@@ -101,6 +110,15 @@
   </si>
   <si>
     <t>B9</t>
+  </si>
+  <si>
+    <t>Drop down</t>
+  </si>
+  <si>
+    <t>Text field</t>
+  </si>
+  <si>
+    <t>Text fieldasdasd</t>
   </si>
 </sst>
 </file>
@@ -458,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,81 +516,108 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
